--- a/results/I3_N5_M2_T45_C150_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1387.469878927141</v>
+        <v>130.9522812893066</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3209998607635498</v>
+        <v>0.187999963760376</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.90152000794547</v>
+        <v>32.95228128930656</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.61895411471757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.437313033157457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1252.410000000755</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41.30463804208573</v>
+        <v>37.15891053163807</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.13528118751897</v>
+        <v>39.65345243823904</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.14572751044755</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.51090377847702</v>
+        <v>32.48909622152292</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,48 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>211.2890000000517</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>213.9520000000004</v>
+        <v>159.8</v>
       </c>
     </row>
     <row r="5">
@@ -1085,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>82.84699999999913</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1096,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>166.0100000000008</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>88.49000000000036</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="8">
@@ -1118,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>213.9520000000004</v>
+        <v>159.8</v>
       </c>
     </row>
     <row r="9">
@@ -1129,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>211.2890000000751</v>
+        <v>121.8</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>63.9520000000004</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1187,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>61.28900000007515</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10.834</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,34 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
